--- a/data processing/Input Files/RebasingCoefficients.xlsx
+++ b/data processing/Input Files/RebasingCoefficients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BIS Consultancy\Product Development\Scenarios_Dashboard\Data Processing\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD74CFEF-FD9B-4DA2-99E0-A3438AB536F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE716C43-BADA-486D-BE66-B4D783A63AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF246CF-8685-4A0D-95E8-73E2FD9F0A06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Division</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>GVAOLCC</t>
+  </si>
+  <si>
+    <t>Net Interstate Migration</t>
+  </si>
+  <si>
+    <t>Net Overseas Migration</t>
+  </si>
+  <si>
+    <t>Natural Increase</t>
+  </si>
+  <si>
+    <t>Total Population Increase</t>
+  </si>
+  <si>
+    <t>NIMTOT</t>
+  </si>
+  <si>
+    <t>NOMTOT</t>
+  </si>
+  <si>
+    <t>POPINC</t>
+  </si>
+  <si>
+    <t>NATTOT</t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE94F8-8811-4296-9A56-EC4544471A97}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,10 +2466,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2478,36 +2502,180 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
         <v>1</v>
       </c>
     </row>

--- a/data processing/Input Files/RebasingCoefficients.xlsx
+++ b/data processing/Input Files/RebasingCoefficients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Economics\Consulting\AEMO_2022\01 Analysis\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE716C43-BADA-486D-BE66-B4D783A63AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2390689E-6EBF-4E2B-9BEF-F0072457E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF246CF-8685-4A0D-95E8-73E2FD9F0A06}"/>
   </bookViews>
@@ -287,40 +287,40 @@
     <t>CPAD</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gross Value Added &gt;&gt; Division R &gt;&gt; Arts and Recreation Services </t>
   </si>
   <si>
+    <t>GVAOLCC</t>
+  </si>
+  <si>
     <t>Gross Value Added &gt;&gt; Division S &gt;&gt; Other Services</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>GVAOLCC</t>
-  </si>
-  <si>
     <t>Net Interstate Migration</t>
   </si>
   <si>
+    <t>NIMTOT</t>
+  </si>
+  <si>
     <t>Net Overseas Migration</t>
   </si>
   <si>
+    <t>NOMTOT</t>
+  </si>
+  <si>
     <t>Natural Increase</t>
   </si>
   <si>
+    <t>NATTOT</t>
+  </si>
+  <si>
     <t>Total Population Increase</t>
   </si>
   <si>
-    <t>NIMTOT</t>
-  </si>
-  <si>
-    <t>NOMTOT</t>
-  </si>
-  <si>
     <t>POPINC</t>
-  </si>
-  <si>
-    <t>NATTOT</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,6 +397,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,8 +427,8 @@
       <sheetName val="GVA"/>
       <sheetName val="AUS"/>
       <sheetName val="ACT"/>
+      <sheetName val="NSW"/>
       <sheetName val="QLD"/>
-      <sheetName val="NSW"/>
       <sheetName val="SA"/>
       <sheetName val="TAS"/>
       <sheetName val="VIC"/>
@@ -436,686 +439,686 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
-        <row r="14">
-          <cell r="B14">
-            <v>1.0167159576350446</v>
-          </cell>
-          <cell r="C14">
-            <v>1.0172647199781566</v>
-          </cell>
-          <cell r="D14">
-            <v>1.0128559886592661</v>
-          </cell>
-          <cell r="E14">
-            <v>1.0162918569807697</v>
-          </cell>
-          <cell r="F14">
-            <v>1.0192616817391884</v>
-          </cell>
-          <cell r="G14">
+        <row r="16">
+          <cell r="B16">
+            <v>1.0113692671286836</v>
+          </cell>
+          <cell r="C16">
+            <v>1.0088744871017066</v>
+          </cell>
+          <cell r="D16">
+            <v>1.0084957083243806</v>
+          </cell>
+          <cell r="E16">
+            <v>0.99455276831107886</v>
+          </cell>
+          <cell r="F16">
+            <v>1.028288026433636</v>
+          </cell>
+          <cell r="G16">
             <v>1</v>
           </cell>
-          <cell r="H14">
-            <v>1.0215124406617238</v>
-          </cell>
-          <cell r="I14">
-            <v>1.047572045311981</v>
-          </cell>
-          <cell r="J14">
-            <v>1.0027328192526057</v>
-          </cell>
-          <cell r="K14">
-            <v>1.033833794571194</v>
-          </cell>
-          <cell r="L14">
-            <v>1.060570138300875</v>
-          </cell>
-          <cell r="M14">
-            <v>1.0290763031918253</v>
-          </cell>
-          <cell r="N14">
+          <cell r="H16">
+            <v>1.1198331303656437</v>
+          </cell>
+          <cell r="I16">
+            <v>1.0114649457525189</v>
+          </cell>
+          <cell r="J16">
+            <v>0.97315206703432944</v>
+          </cell>
+          <cell r="K16">
+            <v>1.0302346893480534</v>
+          </cell>
+          <cell r="L16">
+            <v>1.0476496858678375</v>
+          </cell>
+          <cell r="M16">
+            <v>1.0056241537731592</v>
+          </cell>
+          <cell r="N16">
             <v>1</v>
           </cell>
-          <cell r="O14">
-            <v>1.0610857577486215</v>
-          </cell>
-          <cell r="P14">
-            <v>1.0072114830772065</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.98935094009828983</v>
-          </cell>
-          <cell r="R14">
-            <v>0.97961753220685377</v>
-          </cell>
-          <cell r="S14">
-            <v>1.0343362391762227</v>
-          </cell>
-          <cell r="T14">
-            <v>1.0434179410373641</v>
-          </cell>
-          <cell r="U14">
-            <v>1.0003004102477446</v>
-          </cell>
-          <cell r="V14">
-            <v>1.0117210017293281</v>
-          </cell>
-          <cell r="W14">
-            <v>0.9979656027162328</v>
-          </cell>
-          <cell r="X14">
-            <v>1.0310600945307224</v>
-          </cell>
-          <cell r="Y14">
-            <v>0.941069333827252</v>
+          <cell r="O16">
+            <v>1.0705438549064903</v>
+          </cell>
+          <cell r="P16">
+            <v>1.0521797904697532</v>
+          </cell>
+          <cell r="Q16">
+            <v>1.0096676540477199</v>
+          </cell>
+          <cell r="R16">
+            <v>1.0287931095846532</v>
+          </cell>
+          <cell r="S16">
+            <v>1.0130558052693452</v>
+          </cell>
+          <cell r="T16">
+            <v>1.0479704797047971</v>
+          </cell>
+          <cell r="U16">
+            <v>1.0015586287670615</v>
+          </cell>
+          <cell r="V16">
+            <v>1.0155960958659103</v>
+          </cell>
+          <cell r="W16">
+            <v>1.0169714912707841</v>
+          </cell>
+          <cell r="X16">
+            <v>1.0150898043666956</v>
+          </cell>
+          <cell r="Y16">
+            <v>0.97612471613576379</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0160856849260929</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0259841699645906</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0044211560504339</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0055425904317385</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0143269277785927</v>
-          </cell>
-          <cell r="G15">
-            <v>0.89473684210526316</v>
-          </cell>
-          <cell r="H15">
-            <v>1.024390243902439</v>
-          </cell>
-          <cell r="I15">
-            <v>1.1122448979591837</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0090556274256144</v>
-          </cell>
-          <cell r="K15">
-            <v>1.033395176252319</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0597701149425287</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0278195488721804</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0118518518518518</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0671641791044777</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0121341898643825</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98965791567223549</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97957198443579763</v>
-          </cell>
-          <cell r="S15">
-            <v>1.015029800466442</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0438533429187635</v>
-          </cell>
-          <cell r="U15">
-            <v>0.99488873161909253</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0134284515316827</v>
-          </cell>
-          <cell r="W15">
-            <v>0.9958932238193019</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0394736842105263</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.94789081885856075</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0095001772421128</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0182172090237573</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0067589845037916</v>
+          </cell>
+          <cell r="E17">
+            <v>0.98589291439563964</v>
+          </cell>
+          <cell r="F17">
+            <v>1.0142712223912944</v>
+          </cell>
+          <cell r="G17">
+            <v>0.95454545454545459</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>1.0558375634517767</v>
+          </cell>
+          <cell r="J17">
+            <v>0.98238993710691824</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0340501792114696</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0493827160493827</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0068917987594763</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0141843971631206</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0682539682539682</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0543245175125089</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0146931719965429</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0183585313174945</v>
+          </cell>
+          <cell r="S17">
+            <v>0.99852195945945943</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0478683620044877</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0033452444309283</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0203915171288744</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0163098878695209</v>
+          </cell>
+          <cell r="X17">
+            <v>1.006514657980456</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97039030955585459</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0150727317079433</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0185907136629218</v>
-          </cell>
-          <cell r="D15">
-            <v>1.009011027705309</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0152211239500673</v>
-          </cell>
-          <cell r="F15">
-            <v>0.99297707991769457</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98797772715768162</v>
-          </cell>
-          <cell r="H15">
-            <v>0.78672816190211126</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0393843578536222</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0077202543142598</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0330972848108455</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0605439495467086</v>
-          </cell>
-          <cell r="M15">
-            <v>1.028176363162014</v>
-          </cell>
-          <cell r="N15">
-            <v>0.99810201660735465</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0605889014722536</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0042016806722689</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98982270320055266</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97985989492119085</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0374961894116452</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0434360120493635</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0001004722194313</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0109497083746011</v>
-          </cell>
-          <cell r="W15">
-            <v>0.99729979150288817</v>
-          </cell>
-          <cell r="X15">
-            <v>1.030643910007758</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.93999698477310423</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0108072947280151</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0041707215348255</v>
+          </cell>
+          <cell r="D17">
+            <v>1.003893779844069</v>
+          </cell>
+          <cell r="E17">
+            <v>0.99684533621326665</v>
+          </cell>
+          <cell r="F17">
+            <v>1.0150086406211778</v>
+          </cell>
+          <cell r="G17">
+            <v>0.96777122106218794</v>
+          </cell>
+          <cell r="H17">
+            <v>0.81625046589638461</v>
+          </cell>
+          <cell r="I17">
+            <v>1.0277296869039585</v>
+          </cell>
+          <cell r="J17">
+            <v>0.96432327481595337</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0280007875221491</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0491053890932467</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0048473778495908</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0134561942372387</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0621579500561777</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0546785154208049</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.009651901109293</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0216277507139258</v>
+          </cell>
+          <cell r="S17">
+            <v>1.0096975088967972</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0479644260242629</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0014505464849548</v>
+          </cell>
+          <cell r="V17">
+            <v>1.015097748241822</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0146338188897093</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0134257254222607</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97497257951939376</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0173038935955401</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0134499895570173</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0087337506018295</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0156551396382545</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0069880609291064</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98811952478099119</v>
-          </cell>
-          <cell r="H15">
-            <v>0.70545454545454545</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0709401442532862</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0000771902740255</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0330992757463346</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0605434872387876</v>
-          </cell>
-          <cell r="M15">
-            <v>1.028525401752387</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0081730430493905</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0659478520326857</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0099138631561839</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98926302848166114</v>
-          </cell>
-          <cell r="R15">
-            <v>0.9793422719133511</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0313828898256301</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0434423862370559</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0005848556782606</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0149448541408341</v>
-          </cell>
-          <cell r="W15">
-            <v>0.99692536811510657</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0317253368100825</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.94240519164469683</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0121329976974744</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0120875764719357</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0088107069906405</v>
+          </cell>
+          <cell r="E17">
+            <v>0.9951002839087828</v>
+          </cell>
+          <cell r="F17">
+            <v>0.99268247072310745</v>
+          </cell>
+          <cell r="G17">
+            <v>0.96026490066225167</v>
+          </cell>
+          <cell r="H17">
+            <v>0.7200921852084643</v>
+          </cell>
+          <cell r="I17">
+            <v>0.99685407397420345</v>
+          </cell>
+          <cell r="J17">
+            <v>0.98334253635192348</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0305531367129823</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0455922330097087</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0036958817317845</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0052916139422523</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0830403964732322</v>
+          </cell>
+          <cell r="P17">
+            <v>1.051449571253573</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0109626584446729</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0380125422093585</v>
+          </cell>
+          <cell r="S17">
+            <v>1.016919874208265</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0480117280557082</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0011530146528946</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0154008438818565</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0212993214375472</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0166727075027184</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97726618705035972</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0153582969017296</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0212501111407486</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0182017887964852</v>
-          </cell>
-          <cell r="E15">
-            <v>1.016958041958042</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0211937157309801</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98526145770240259</v>
-          </cell>
-          <cell r="H15">
-            <v>0.98357289527720737</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0698980345795774</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0015247776365948</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0350521044796319</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0604545454545455</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0341864018334606</v>
-          </cell>
-          <cell r="N15">
-            <v>1.001601922306768</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0605025616003902</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0078392944634982</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98896568449133015</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97930241471828283</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0362888809438684</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0434067740874713</v>
-          </cell>
-          <cell r="U15">
-            <v>1.000920104278485</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0125254423046814</v>
-          </cell>
-          <cell r="W15">
-            <v>0.99583591742712851</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0325318246110324</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.94036259541984735</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0122648083623693</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0124187041477035</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0060000983622683</v>
+          </cell>
+          <cell r="E17">
+            <v>0.99217809867629359</v>
+          </cell>
+          <cell r="F17">
+            <v>1.0245211928194151</v>
+          </cell>
+          <cell r="G17">
+            <v>0.96510468594217347</v>
+          </cell>
+          <cell r="H17">
+            <v>1.1298868312757202</v>
+          </cell>
+          <cell r="I17">
+            <v>1.035195307292361</v>
+          </cell>
+          <cell r="J17">
+            <v>0.97082699137493655</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0265848670756645</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0472027972027973</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0086115992970124</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0092592592592593</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0629285014691479</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0511928429423458</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0086776324310323</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0223146747352496</v>
+          </cell>
+          <cell r="S17">
+            <v>1.0180016515276631</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0479475681269403</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0013108068744538</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0172162241027138</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0194943389801652</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0117647058823529</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97577854671280273</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0183486238532109</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0288071871490649</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0394331484904498</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0263392857142857</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0249828671110834</v>
-          </cell>
-          <cell r="G15">
-            <v>0.99394802420790318</v>
-          </cell>
-          <cell r="H15">
-            <v>0.94776748104465036</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0502463054187192</v>
-          </cell>
-          <cell r="J15">
-            <v>0.99798792756539234</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0456255879586076</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0603271983640081</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0294708640321499</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0042857142857142</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0571658615136876</v>
-          </cell>
-          <cell r="P15">
-            <v>1</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98897464167585447</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97905759162303663</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0484848484848486</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0445269016697589</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0004646840148699</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0100475938656794</v>
-          </cell>
-          <cell r="W15">
-            <v>0.99539505574406206</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0334448160535117</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.9425493716337523</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0147363824909945</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0152577710386657</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0102283105022831</v>
+          </cell>
+          <cell r="E17">
+            <v>1.006578947368421</v>
+          </cell>
+          <cell r="F17">
+            <v>1.0223571868673533</v>
+          </cell>
+          <cell r="G17">
+            <v>0.96631403118040093</v>
+          </cell>
+          <cell r="H17">
+            <v>1.1160220994475138</v>
+          </cell>
+          <cell r="I17">
+            <v>1.0080042689434365</v>
+          </cell>
+          <cell r="J17">
+            <v>0.96101364522417154</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0376681614349776</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0543237250554325</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0069885641677256</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0111888111888112</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0514761544284632</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0453230472516875</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0085003035822708</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0404624277456647</v>
+          </cell>
+          <cell r="S17">
+            <v>1.0171265461465271</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0477064220183485</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0017683465959328</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0176233635448138</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0193562907945082</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0160771704180065</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97627737226277367</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
-        <row r="15">
-          <cell r="B15">
-            <v>1.019177645558861</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0200761749104361</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0136467020470052</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0179561439801406</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0195709258109154</v>
-          </cell>
-          <cell r="G15">
-            <v>0.99347880611988959</v>
-          </cell>
-          <cell r="H15">
-            <v>0.91284710605553698</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0741497260318387</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0015592942141978</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0320031386615851</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0605478883469959</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0296745673438676</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0118819011041766</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0639936796365792</v>
-          </cell>
-          <cell r="P15">
-            <v>1.0042657397898729</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98934302649786243</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97957107739255744</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0352206985215342</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0434383954154727</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0021623491761449</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0080463603768866</v>
-          </cell>
-          <cell r="W15">
-            <v>1.003725006847439</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0298695835086242</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.94191919191919193</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0117161295199222</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0091441332689521</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0070576918775027</v>
+          </cell>
+          <cell r="E17">
+            <v>0.99029893647599887</v>
+          </cell>
+          <cell r="F17">
+            <v>1.0125933234243931</v>
+          </cell>
+          <cell r="G17">
+            <v>0.97211501350829799</v>
+          </cell>
+          <cell r="H17">
+            <v>0.77138054213069973</v>
+          </cell>
+          <cell r="I17">
+            <v>1.0264301349276357</v>
+          </cell>
+          <cell r="J17">
+            <v>0.97338158423803778</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0315860403739787</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0492476060191518</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0045596781403665</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0153139356814702</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0850530955720297</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0489994673970935</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0092611370242683</v>
+          </cell>
+          <cell r="R17">
+            <v>1.027027027027027</v>
+          </cell>
+          <cell r="S17">
+            <v>1.0144647014203134</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0479526512863873</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0015071283095722</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0146919431279622</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0183414532475314</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0165769644779332</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97486791375124948</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0130410452300431</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0151536463461521</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0215901882004652</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0186957990764727</v>
-          </cell>
-          <cell r="F15">
-            <v>1.0822487717425517</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98070271254323682</v>
-          </cell>
-          <cell r="H15">
-            <v>1.1952937226070974</v>
-          </cell>
-          <cell r="I15">
-            <v>0.9315196998123827</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0018446402951424</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0386929835118546</v>
-          </cell>
-          <cell r="L15">
-            <v>1.0605702117591387</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0275820895522387</v>
-          </cell>
-          <cell r="N15">
-            <v>1.0037518759379689</v>
-          </cell>
-          <cell r="O15">
-            <v>1.0430075187969925</v>
-          </cell>
-          <cell r="P15">
-            <v>1.008400292184076</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.98929208804283164</v>
-          </cell>
-          <cell r="R15">
-            <v>0.98036973508671621</v>
-          </cell>
-          <cell r="S15">
-            <v>1.0414360819037078</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0433918516064922</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0021050521251003</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0124017273834569</v>
-          </cell>
-          <cell r="W15">
-            <v>0.9914217232244229</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0306845003933911</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.93736067766384312</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0101964903067699</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0119437382254495</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0216530490042688</v>
+          </cell>
+          <cell r="E17">
+            <v>0.99859429065743943</v>
+          </cell>
+          <cell r="F17">
+            <v>1.1282008900587239</v>
+          </cell>
+          <cell r="G17">
+            <v>0.96588324488248678</v>
+          </cell>
+          <cell r="H17">
+            <v>1.2972117039586919</v>
+          </cell>
+          <cell r="I17">
+            <v>0.95454262019080871</v>
+          </cell>
+          <cell r="J17">
+            <v>0.97730525454917194</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0330250241162118</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0403881458169419</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0115753500165363</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0093628682347568</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0477178423236515</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0536456365697016</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0094254123617907</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0491004497751124</v>
+          </cell>
+          <cell r="S17">
+            <v>1.018665234322546</v>
+          </cell>
+          <cell r="T17">
+            <v>1.048078469207268</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0011343227148124</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0174278846153846</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0086498015285266</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0164794007490636</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97952361053071457</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="15">
-          <cell r="B15">
-            <v>1.0188545840207401</v>
-          </cell>
-          <cell r="C15">
-            <v>1.002963104568916</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0132408575031526</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0124724871606749</v>
-          </cell>
-          <cell r="F15">
-            <v>0.99239093029480363</v>
-          </cell>
-          <cell r="G15">
-            <v>0.99229583975346691</v>
-          </cell>
-          <cell r="H15">
-            <v>0.94960776492487697</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0814663951120163</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0105932203389831</v>
-          </cell>
-          <cell r="K15">
-            <v>1.0361527967257844</v>
-          </cell>
-          <cell r="L15">
-            <v>1.061611374407583</v>
-          </cell>
-          <cell r="M15">
-            <v>1.0318840579710145</v>
-          </cell>
-          <cell r="N15">
-            <v>0.98272884283246975</v>
-          </cell>
-          <cell r="O15">
-            <v>1.047808764940239</v>
-          </cell>
-          <cell r="P15">
-            <v>1</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.9889415481832543</v>
-          </cell>
-          <cell r="R15">
-            <v>0.97855227882037532</v>
-          </cell>
-          <cell r="S15">
-            <v>1.047569803516029</v>
-          </cell>
-          <cell r="T15">
-            <v>1.0430839002267573</v>
-          </cell>
-          <cell r="U15">
-            <v>1</v>
-          </cell>
-          <cell r="V15">
-            <v>1.0050933786078098</v>
-          </cell>
-          <cell r="W15">
-            <v>0.99794766546947156</v>
-          </cell>
-          <cell r="X15">
-            <v>1.0306122448979591</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.93953488372093019</v>
+        <row r="17">
+          <cell r="B17">
+            <v>1.0138155677861396</v>
+          </cell>
+          <cell r="C17">
+            <v>1.0103064574972638</v>
+          </cell>
+          <cell r="D17">
+            <v>1.0057098364910459</v>
+          </cell>
+          <cell r="E17">
+            <v>0.99839228295819937</v>
+          </cell>
+          <cell r="F17">
+            <v>0.95821397196440161</v>
+          </cell>
+          <cell r="G17">
+            <v>0.97186147186147187</v>
+          </cell>
+          <cell r="H17">
+            <v>0.77474402730375425</v>
+          </cell>
+          <cell r="I17">
+            <v>1.0493454179254784</v>
+          </cell>
+          <cell r="J17">
+            <v>0.95483870967741935</v>
+          </cell>
+          <cell r="K17">
+            <v>1.0280054644808743</v>
+          </cell>
+          <cell r="L17">
+            <v>1.0454002389486261</v>
+          </cell>
+          <cell r="M17">
+            <v>1.0107962213225372</v>
+          </cell>
+          <cell r="N17">
+            <v>1.0032786885245901</v>
+          </cell>
+          <cell r="O17">
+            <v>1.0751879699248121</v>
+          </cell>
+          <cell r="P17">
+            <v>1.0588235294117647</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.0065040650406505</v>
+          </cell>
+          <cell r="R17">
+            <v>1.0491329479768785</v>
+          </cell>
+          <cell r="S17">
+            <v>1.0115473441108545</v>
+          </cell>
+          <cell r="T17">
+            <v>1.0470588235294118</v>
+          </cell>
+          <cell r="U17">
+            <v>1.0003200000000001</v>
+          </cell>
+          <cell r="V17">
+            <v>1.0139534883720931</v>
+          </cell>
+          <cell r="W17">
+            <v>1.0249529190207156</v>
+          </cell>
+          <cell r="X17">
+            <v>1.0186915887850467</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.97619047619047616</v>
           </cell>
         </row>
       </sheetData>
@@ -1424,7 +1427,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,39 +1484,39 @@
       </c>
       <c r="D2" s="3">
         <f>D4</f>
-        <v>1.0172647199781566</v>
+        <v>1.0088744871017066</v>
       </c>
       <c r="E2" s="3">
         <f>E4</f>
-        <v>1.0259841699645906</v>
+        <v>1.0182172090237573</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:L2" si="0">F4</f>
-        <v>1.0134499895570173</v>
+        <v>1.0041707215348255</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>1.0185907136629218</v>
+        <v>1.0120875764719357</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>1.0212501111407486</v>
+        <v>1.0124187041477035</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>1.0288071871490649</v>
+        <v>1.0152577710386657</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>1.0200761749104361</v>
+        <v>1.0091441332689521</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>1.0151536463461521</v>
+        <v>1.0119437382254495</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" si="0"/>
-        <v>1.002963104568916</v>
+        <v>1.0103064574972638</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1525,40 +1528,40 @@
         <v>50</v>
       </c>
       <c r="D3" s="5">
-        <f t="array" ref="D3:D26">TRANSPOSE([1]AUS!$B$14:$Y$14)</f>
-        <v>1.0167159576350446</v>
+        <f t="array" ref="D3:D26">TRANSPOSE([1]AUS!$B$16:$Y$16)</f>
+        <v>1.0113692671286836</v>
       </c>
       <c r="E3" s="5">
-        <f t="array" ref="E3:E26">TRANSPOSE([1]ACT!$B$15:$Y$15)</f>
-        <v>1.0160856849260929</v>
+        <f t="array" ref="E3:E26">TRANSPOSE([1]ACT!$B$17:$Y$17)</f>
+        <v>1.0095001772421128</v>
       </c>
       <c r="F3" s="5">
-        <f t="array" ref="F3:F26">TRANSPOSE([1]NSW!$B$15:$Y$15)</f>
-        <v>1.0173038935955401</v>
+        <f t="array" ref="F3:F26">TRANSPOSE([1]NSW!$B$17:$Y$17)</f>
+        <v>1.0108072947280151</v>
       </c>
       <c r="G3" s="5">
-        <f t="array" ref="G3:G26">TRANSPOSE([1]QLD!$B$15:$Y$15)</f>
-        <v>1.0150727317079433</v>
+        <f t="array" ref="G3:G26">TRANSPOSE([1]QLD!$B$17:$Y$17)</f>
+        <v>1.0121329976974744</v>
       </c>
       <c r="H3" s="5">
-        <f t="array" ref="H3:H26">TRANSPOSE([1]SA!$B$15:$Y$15)</f>
-        <v>1.0153582969017296</v>
+        <f t="array" ref="H3:H26">TRANSPOSE([1]SA!$B$17:$Y$17)</f>
+        <v>1.0122648083623693</v>
       </c>
       <c r="I3" s="5">
-        <f t="array" ref="I3:I26">TRANSPOSE([1]TAS!$B$15:$Y$15)</f>
-        <v>1.0183486238532109</v>
+        <f t="array" ref="I3:I26">TRANSPOSE([1]TAS!$B$17:$Y$17)</f>
+        <v>1.0147363824909945</v>
       </c>
       <c r="J3" s="5">
-        <f t="array" ref="J3:J26">TRANSPOSE([1]VIC!$B$15:$Y$15)</f>
-        <v>1.019177645558861</v>
+        <f t="array" ref="J3:J26">TRANSPOSE([1]VIC!$B$17:$Y$17)</f>
+        <v>1.0117161295199222</v>
       </c>
       <c r="K3" s="5">
-        <f t="array" ref="K3:K26">TRANSPOSE([1]WA!$B$15:$Y$15)</f>
-        <v>1.0130410452300431</v>
+        <f t="array" ref="K3:K26">TRANSPOSE([1]WA!$B$17:$Y$17)</f>
+        <v>1.0101964903067699</v>
       </c>
       <c r="L3" s="5">
-        <f t="array" ref="L3:L26">TRANSPOSE([1]NT!$B$15:$Y$15)</f>
-        <v>1.0188545840207401</v>
+        <f t="array" ref="L3:L26">TRANSPOSE([1]NT!$B$17:$Y$17)</f>
+        <v>1.0138155677861396</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1570,31 +1573,31 @@
         <v>52</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0172647199781566</v>
+        <v>1.0088744871017066</v>
       </c>
       <c r="E4" s="3">
-        <v>1.0259841699645906</v>
+        <v>1.0182172090237573</v>
       </c>
       <c r="F4" s="3">
-        <v>1.0134499895570173</v>
+        <v>1.0041707215348255</v>
       </c>
       <c r="G4" s="3">
-        <v>1.0185907136629218</v>
+        <v>1.0120875764719357</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0212501111407486</v>
+        <v>1.0124187041477035</v>
       </c>
       <c r="I4" s="3">
-        <v>1.0288071871490649</v>
+        <v>1.0152577710386657</v>
       </c>
       <c r="J4" s="3">
-        <v>1.0200761749104361</v>
+        <v>1.0091441332689521</v>
       </c>
       <c r="K4" s="3">
-        <v>1.0151536463461521</v>
+        <v>1.0119437382254495</v>
       </c>
       <c r="L4" s="3">
-        <v>1.002963104568916</v>
+        <v>1.0103064574972638</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1606,31 +1609,31 @@
         <v>51</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0128559886592661</v>
+        <v>1.0084957083243806</v>
       </c>
       <c r="E5" s="5">
-        <v>1.0044211560504339</v>
+        <v>1.0067589845037916</v>
       </c>
       <c r="F5" s="5">
-        <v>1.0087337506018295</v>
+        <v>1.003893779844069</v>
       </c>
       <c r="G5" s="5">
-        <v>1.009011027705309</v>
+        <v>1.0088107069906405</v>
       </c>
       <c r="H5" s="5">
-        <v>1.0182017887964852</v>
+        <v>1.0060000983622683</v>
       </c>
       <c r="I5" s="5">
-        <v>1.0394331484904498</v>
+        <v>1.0102283105022831</v>
       </c>
       <c r="J5" s="5">
-        <v>1.0136467020470052</v>
+        <v>1.0070576918775027</v>
       </c>
       <c r="K5" s="5">
-        <v>1.0215901882004652</v>
+        <v>1.0216530490042688</v>
       </c>
       <c r="L5" s="5">
-        <v>1.0132408575031526</v>
+        <v>1.0057098364910459</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1642,31 +1645,31 @@
         <v>53</v>
       </c>
       <c r="D6" s="3">
-        <v>1.0162918569807697</v>
+        <v>0.99455276831107886</v>
       </c>
       <c r="E6" s="3">
-        <v>1.0055425904317385</v>
+        <v>0.98589291439563964</v>
       </c>
       <c r="F6" s="3">
-        <v>1.0156551396382545</v>
+        <v>0.99684533621326665</v>
       </c>
       <c r="G6" s="3">
-        <v>1.0152211239500673</v>
+        <v>0.9951002839087828</v>
       </c>
       <c r="H6" s="3">
-        <v>1.016958041958042</v>
+        <v>0.99217809867629359</v>
       </c>
       <c r="I6" s="3">
-        <v>1.0263392857142857</v>
+        <v>1.006578947368421</v>
       </c>
       <c r="J6" s="3">
-        <v>1.0179561439801406</v>
+        <v>0.99029893647599887</v>
       </c>
       <c r="K6" s="3">
-        <v>1.0186957990764727</v>
+        <v>0.99859429065743943</v>
       </c>
       <c r="L6" s="3">
-        <v>1.0124724871606749</v>
+        <v>0.99839228295819937</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1678,31 +1681,31 @@
         <v>54</v>
       </c>
       <c r="D7" s="5">
-        <v>1.0192616817391884</v>
+        <v>1.028288026433636</v>
       </c>
       <c r="E7" s="5">
-        <v>1.0143269277785927</v>
+        <v>1.0142712223912944</v>
       </c>
       <c r="F7" s="5">
-        <v>1.0069880609291064</v>
+        <v>1.0150086406211778</v>
       </c>
       <c r="G7" s="5">
-        <v>0.99297707991769457</v>
+        <v>0.99268247072310745</v>
       </c>
       <c r="H7" s="5">
-        <v>1.0211937157309801</v>
+        <v>1.0245211928194151</v>
       </c>
       <c r="I7" s="5">
-        <v>1.0249828671110834</v>
+        <v>1.0223571868673533</v>
       </c>
       <c r="J7" s="5">
-        <v>1.0195709258109154</v>
+        <v>1.0125933234243931</v>
       </c>
       <c r="K7" s="5">
-        <v>1.0822487717425517</v>
+        <v>1.1282008900587239</v>
       </c>
       <c r="L7" s="5">
-        <v>0.99239093029480363</v>
+        <v>0.95821397196440161</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1719,28 +1722,28 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.89473684210526316</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="F8" s="3">
-        <v>0.98811952478099119</v>
+        <v>0.96777122106218794</v>
       </c>
       <c r="G8" s="3">
-        <v>0.98797772715768162</v>
+        <v>0.96026490066225167</v>
       </c>
       <c r="H8" s="3">
-        <v>0.98526145770240259</v>
+        <v>0.96510468594217347</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99394802420790318</v>
+        <v>0.96631403118040093</v>
       </c>
       <c r="J8" s="3">
-        <v>0.99347880611988959</v>
+        <v>0.97211501350829799</v>
       </c>
       <c r="K8" s="3">
-        <v>0.98070271254323682</v>
+        <v>0.96588324488248678</v>
       </c>
       <c r="L8" s="3">
-        <v>0.99229583975346691</v>
+        <v>0.97186147186147187</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1754,31 +1757,31 @@
         <v>56</v>
       </c>
       <c r="D9" s="5">
-        <v>1.0215124406617238</v>
+        <v>1.1198331303656437</v>
       </c>
       <c r="E9" s="5">
-        <v>1.024390243902439</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>0.70545454545454545</v>
+        <v>0.81625046589638461</v>
       </c>
       <c r="G9" s="5">
-        <v>0.78672816190211126</v>
+        <v>0.7200921852084643</v>
       </c>
       <c r="H9" s="5">
-        <v>0.98357289527720737</v>
+        <v>1.1298868312757202</v>
       </c>
       <c r="I9" s="5">
-        <v>0.94776748104465036</v>
+        <v>1.1160220994475138</v>
       </c>
       <c r="J9" s="5">
-        <v>0.91284710605553698</v>
+        <v>0.77138054213069973</v>
       </c>
       <c r="K9" s="5">
-        <v>1.1952937226070974</v>
+        <v>1.2972117039586919</v>
       </c>
       <c r="L9" s="5">
-        <v>0.94960776492487697</v>
+        <v>0.77474402730375425</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1792,31 +1795,31 @@
         <v>57</v>
       </c>
       <c r="D10" s="3">
-        <v>1.047572045311981</v>
+        <v>1.0114649457525189</v>
       </c>
       <c r="E10" s="3">
-        <v>1.1122448979591837</v>
+        <v>1.0558375634517767</v>
       </c>
       <c r="F10" s="3">
-        <v>1.0709401442532862</v>
+        <v>1.0277296869039585</v>
       </c>
       <c r="G10" s="3">
-        <v>1.0393843578536222</v>
+        <v>0.99685407397420345</v>
       </c>
       <c r="H10" s="3">
-        <v>1.0698980345795774</v>
+        <v>1.035195307292361</v>
       </c>
       <c r="I10" s="3">
-        <v>1.0502463054187192</v>
+        <v>1.0080042689434365</v>
       </c>
       <c r="J10" s="3">
-        <v>1.0741497260318387</v>
+        <v>1.0264301349276357</v>
       </c>
       <c r="K10" s="3">
-        <v>0.9315196998123827</v>
+        <v>0.95454262019080871</v>
       </c>
       <c r="L10" s="3">
-        <v>1.0814663951120163</v>
+        <v>1.0493454179254784</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1830,31 +1833,31 @@
         <v>58</v>
       </c>
       <c r="D11" s="5">
-        <v>1.0027328192526057</v>
+        <v>0.97315206703432944</v>
       </c>
       <c r="E11" s="5">
-        <v>1.0090556274256144</v>
+        <v>0.98238993710691824</v>
       </c>
       <c r="F11" s="5">
-        <v>1.0000771902740255</v>
+        <v>0.96432327481595337</v>
       </c>
       <c r="G11" s="5">
-        <v>1.0077202543142598</v>
+        <v>0.98334253635192348</v>
       </c>
       <c r="H11" s="5">
-        <v>1.0015247776365948</v>
+        <v>0.97082699137493655</v>
       </c>
       <c r="I11" s="5">
-        <v>0.99798792756539234</v>
+        <v>0.96101364522417154</v>
       </c>
       <c r="J11" s="5">
-        <v>1.0015592942141978</v>
+        <v>0.97338158423803778</v>
       </c>
       <c r="K11" s="5">
-        <v>1.0018446402951424</v>
+        <v>0.97730525454917194</v>
       </c>
       <c r="L11" s="5">
-        <v>1.0105932203389831</v>
+        <v>0.95483870967741935</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1868,31 +1871,31 @@
         <v>59</v>
       </c>
       <c r="D12" s="3">
-        <v>1.033833794571194</v>
+        <v>1.0302346893480534</v>
       </c>
       <c r="E12" s="3">
-        <v>1.033395176252319</v>
+        <v>1.0340501792114696</v>
       </c>
       <c r="F12" s="3">
-        <v>1.0330992757463346</v>
+        <v>1.0280007875221491</v>
       </c>
       <c r="G12" s="3">
-        <v>1.0330972848108455</v>
+        <v>1.0305531367129823</v>
       </c>
       <c r="H12" s="3">
-        <v>1.0350521044796319</v>
+        <v>1.0265848670756645</v>
       </c>
       <c r="I12" s="3">
-        <v>1.0456255879586076</v>
+        <v>1.0376681614349776</v>
       </c>
       <c r="J12" s="3">
-        <v>1.0320031386615851</v>
+        <v>1.0315860403739787</v>
       </c>
       <c r="K12" s="3">
-        <v>1.0386929835118546</v>
+        <v>1.0330250241162118</v>
       </c>
       <c r="L12" s="3">
-        <v>1.0361527967257844</v>
+        <v>1.0280054644808743</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,31 +1909,31 @@
         <v>60</v>
       </c>
       <c r="D13" s="5">
-        <v>1.060570138300875</v>
+        <v>1.0476496858678375</v>
       </c>
       <c r="E13" s="5">
-        <v>1.0597701149425287</v>
+        <v>1.0493827160493827</v>
       </c>
       <c r="F13" s="5">
-        <v>1.0605434872387876</v>
+        <v>1.0491053890932467</v>
       </c>
       <c r="G13" s="5">
-        <v>1.0605439495467086</v>
+        <v>1.0455922330097087</v>
       </c>
       <c r="H13" s="5">
-        <v>1.0604545454545455</v>
+        <v>1.0472027972027973</v>
       </c>
       <c r="I13" s="5">
-        <v>1.0603271983640081</v>
+        <v>1.0543237250554325</v>
       </c>
       <c r="J13" s="5">
-        <v>1.0605478883469959</v>
+        <v>1.0492476060191518</v>
       </c>
       <c r="K13" s="5">
-        <v>1.0605702117591387</v>
+        <v>1.0403881458169419</v>
       </c>
       <c r="L13" s="5">
-        <v>1.061611374407583</v>
+        <v>1.0454002389486261</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1944,31 +1947,31 @@
         <v>61</v>
       </c>
       <c r="D14" s="3">
-        <v>1.0290763031918253</v>
+        <v>1.0056241537731592</v>
       </c>
       <c r="E14" s="3">
-        <v>1.0278195488721804</v>
+        <v>1.0068917987594763</v>
       </c>
       <c r="F14" s="3">
-        <v>1.028525401752387</v>
+        <v>1.0048473778495908</v>
       </c>
       <c r="G14" s="3">
-        <v>1.028176363162014</v>
+        <v>1.0036958817317845</v>
       </c>
       <c r="H14" s="3">
-        <v>1.0341864018334606</v>
+        <v>1.0086115992970124</v>
       </c>
       <c r="I14" s="3">
-        <v>1.0294708640321499</v>
+        <v>1.0069885641677256</v>
       </c>
       <c r="J14" s="3">
-        <v>1.0296745673438676</v>
+        <v>1.0045596781403665</v>
       </c>
       <c r="K14" s="3">
-        <v>1.0275820895522387</v>
+        <v>1.0115753500165363</v>
       </c>
       <c r="L14" s="3">
-        <v>1.0318840579710145</v>
+        <v>1.0107962213225372</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1985,28 +1988,28 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>1.0118518518518518</v>
+        <v>1.0141843971631206</v>
       </c>
       <c r="F15" s="5">
-        <v>1.0081730430493905</v>
+        <v>1.0134561942372387</v>
       </c>
       <c r="G15" s="5">
-        <v>0.99810201660735465</v>
+        <v>1.0052916139422523</v>
       </c>
       <c r="H15" s="5">
-        <v>1.001601922306768</v>
+        <v>1.0092592592592593</v>
       </c>
       <c r="I15" s="5">
-        <v>1.0042857142857142</v>
+        <v>1.0111888111888112</v>
       </c>
       <c r="J15" s="5">
-        <v>1.0118819011041766</v>
+        <v>1.0153139356814702</v>
       </c>
       <c r="K15" s="5">
-        <v>1.0037518759379689</v>
+        <v>1.0093628682347568</v>
       </c>
       <c r="L15" s="5">
-        <v>0.98272884283246975</v>
+        <v>1.0032786885245901</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2020,31 +2023,31 @@
         <v>63</v>
       </c>
       <c r="D16" s="3">
-        <v>1.0610857577486215</v>
+        <v>1.0705438549064903</v>
       </c>
       <c r="E16" s="3">
-        <v>1.0671641791044777</v>
+        <v>1.0682539682539682</v>
       </c>
       <c r="F16" s="3">
-        <v>1.0659478520326857</v>
+        <v>1.0621579500561777</v>
       </c>
       <c r="G16" s="3">
-        <v>1.0605889014722536</v>
+        <v>1.0830403964732322</v>
       </c>
       <c r="H16" s="3">
-        <v>1.0605025616003902</v>
+        <v>1.0629285014691479</v>
       </c>
       <c r="I16" s="3">
-        <v>1.0571658615136876</v>
+        <v>1.0514761544284632</v>
       </c>
       <c r="J16" s="3">
-        <v>1.0639936796365792</v>
+        <v>1.0850530955720297</v>
       </c>
       <c r="K16" s="3">
-        <v>1.0430075187969925</v>
+        <v>1.0477178423236515</v>
       </c>
       <c r="L16" s="3">
-        <v>1.047808764940239</v>
+        <v>1.0751879699248121</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2058,31 +2061,31 @@
         <v>64</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0072114830772065</v>
+        <v>1.0521797904697532</v>
       </c>
       <c r="E17" s="5">
-        <v>1.0121341898643825</v>
+        <v>1.0543245175125089</v>
       </c>
       <c r="F17" s="5">
-        <v>1.0099138631561839</v>
+        <v>1.0546785154208049</v>
       </c>
       <c r="G17" s="5">
-        <v>1.0042016806722689</v>
+        <v>1.051449571253573</v>
       </c>
       <c r="H17" s="5">
-        <v>1.0078392944634982</v>
+        <v>1.0511928429423458</v>
       </c>
       <c r="I17" s="5">
-        <v>1</v>
+        <v>1.0453230472516875</v>
       </c>
       <c r="J17" s="5">
-        <v>1.0042657397898729</v>
+        <v>1.0489994673970935</v>
       </c>
       <c r="K17" s="5">
-        <v>1.008400292184076</v>
+        <v>1.0536456365697016</v>
       </c>
       <c r="L17" s="5">
-        <v>1</v>
+        <v>1.0588235294117647</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2096,31 +2099,31 @@
         <v>65</v>
       </c>
       <c r="D18" s="3">
-        <v>0.98935094009828983</v>
+        <v>1.0096676540477199</v>
       </c>
       <c r="E18" s="3">
-        <v>0.98965791567223549</v>
+        <v>1.0146931719965429</v>
       </c>
       <c r="F18" s="3">
-        <v>0.98926302848166114</v>
+        <v>1.009651901109293</v>
       </c>
       <c r="G18" s="3">
-        <v>0.98982270320055266</v>
+        <v>1.0109626584446729</v>
       </c>
       <c r="H18" s="3">
-        <v>0.98896568449133015</v>
+        <v>1.0086776324310323</v>
       </c>
       <c r="I18" s="3">
-        <v>0.98897464167585447</v>
+        <v>1.0085003035822708</v>
       </c>
       <c r="J18" s="3">
-        <v>0.98934302649786243</v>
+        <v>1.0092611370242683</v>
       </c>
       <c r="K18" s="3">
-        <v>0.98929208804283164</v>
+        <v>1.0094254123617907</v>
       </c>
       <c r="L18" s="3">
-        <v>0.9889415481832543</v>
+        <v>1.0065040650406505</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2134,31 +2137,31 @@
         <v>66</v>
       </c>
       <c r="D19" s="5">
-        <v>0.97961753220685377</v>
+        <v>1.0287931095846532</v>
       </c>
       <c r="E19" s="5">
-        <v>0.97957198443579763</v>
+        <v>1.0183585313174945</v>
       </c>
       <c r="F19" s="5">
-        <v>0.9793422719133511</v>
+        <v>1.0216277507139258</v>
       </c>
       <c r="G19" s="5">
-        <v>0.97985989492119085</v>
+        <v>1.0380125422093585</v>
       </c>
       <c r="H19" s="5">
-        <v>0.97930241471828283</v>
+        <v>1.0223146747352496</v>
       </c>
       <c r="I19" s="5">
-        <v>0.97905759162303663</v>
+        <v>1.0404624277456647</v>
       </c>
       <c r="J19" s="5">
-        <v>0.97957107739255744</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="K19" s="5">
-        <v>0.98036973508671621</v>
+        <v>1.0491004497751124</v>
       </c>
       <c r="L19" s="5">
-        <v>0.97855227882037532</v>
+        <v>1.0491329479768785</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2172,31 +2175,31 @@
         <v>67</v>
       </c>
       <c r="D20" s="3">
-        <v>1.0343362391762227</v>
+        <v>1.0130558052693452</v>
       </c>
       <c r="E20" s="3">
-        <v>1.015029800466442</v>
+        <v>0.99852195945945943</v>
       </c>
       <c r="F20" s="3">
-        <v>1.0313828898256301</v>
+        <v>1.0096975088967972</v>
       </c>
       <c r="G20" s="3">
-        <v>1.0374961894116452</v>
+        <v>1.016919874208265</v>
       </c>
       <c r="H20" s="3">
-        <v>1.0362888809438684</v>
+        <v>1.0180016515276631</v>
       </c>
       <c r="I20" s="3">
-        <v>1.0484848484848486</v>
+        <v>1.0171265461465271</v>
       </c>
       <c r="J20" s="3">
-        <v>1.0352206985215342</v>
+        <v>1.0144647014203134</v>
       </c>
       <c r="K20" s="3">
-        <v>1.0414360819037078</v>
+        <v>1.018665234322546</v>
       </c>
       <c r="L20" s="3">
-        <v>1.047569803516029</v>
+        <v>1.0115473441108545</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2210,31 +2213,31 @@
         <v>68</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0434179410373641</v>
+        <v>1.0479704797047971</v>
       </c>
       <c r="E21" s="5">
-        <v>1.0438533429187635</v>
+        <v>1.0478683620044877</v>
       </c>
       <c r="F21" s="5">
-        <v>1.0434423862370559</v>
+        <v>1.0479644260242629</v>
       </c>
       <c r="G21" s="5">
-        <v>1.0434360120493635</v>
+        <v>1.0480117280557082</v>
       </c>
       <c r="H21" s="5">
-        <v>1.0434067740874713</v>
+        <v>1.0479475681269403</v>
       </c>
       <c r="I21" s="5">
-        <v>1.0445269016697589</v>
+        <v>1.0477064220183485</v>
       </c>
       <c r="J21" s="5">
-        <v>1.0434383954154727</v>
+        <v>1.0479526512863873</v>
       </c>
       <c r="K21" s="5">
-        <v>1.0433918516064922</v>
+        <v>1.048078469207268</v>
       </c>
       <c r="L21" s="5">
-        <v>1.0430839002267573</v>
+        <v>1.0470588235294118</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2248,31 +2251,31 @@
         <v>69</v>
       </c>
       <c r="D22" s="3">
-        <v>1.0003004102477446</v>
+        <v>1.0015586287670615</v>
       </c>
       <c r="E22" s="3">
-        <v>0.99488873161909253</v>
+        <v>1.0033452444309283</v>
       </c>
       <c r="F22" s="3">
-        <v>1.0005848556782606</v>
+        <v>1.0014505464849548</v>
       </c>
       <c r="G22" s="3">
-        <v>1.0001004722194313</v>
+        <v>1.0011530146528946</v>
       </c>
       <c r="H22" s="3">
-        <v>1.000920104278485</v>
+        <v>1.0013108068744538</v>
       </c>
       <c r="I22" s="3">
-        <v>1.0004646840148699</v>
+        <v>1.0017683465959328</v>
       </c>
       <c r="J22" s="3">
-        <v>1.0021623491761449</v>
+        <v>1.0015071283095722</v>
       </c>
       <c r="K22" s="3">
-        <v>1.0021050521251003</v>
+        <v>1.0011343227148124</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>1.0003200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2286,31 +2289,31 @@
         <v>70</v>
       </c>
       <c r="D23" s="5">
-        <v>1.0117210017293281</v>
+        <v>1.0155960958659103</v>
       </c>
       <c r="E23" s="5">
-        <v>1.0134284515316827</v>
+        <v>1.0203915171288744</v>
       </c>
       <c r="F23" s="5">
-        <v>1.0149448541408341</v>
+        <v>1.015097748241822</v>
       </c>
       <c r="G23" s="5">
-        <v>1.0109497083746011</v>
+        <v>1.0154008438818565</v>
       </c>
       <c r="H23" s="5">
-        <v>1.0125254423046814</v>
+        <v>1.0172162241027138</v>
       </c>
       <c r="I23" s="5">
-        <v>1.0100475938656794</v>
+        <v>1.0176233635448138</v>
       </c>
       <c r="J23" s="5">
-        <v>1.0080463603768866</v>
+        <v>1.0146919431279622</v>
       </c>
       <c r="K23" s="5">
-        <v>1.0124017273834569</v>
+        <v>1.0174278846153846</v>
       </c>
       <c r="L23" s="5">
-        <v>1.0050933786078098</v>
+        <v>1.0139534883720931</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2324,69 +2327,69 @@
         <v>71</v>
       </c>
       <c r="D24" s="3">
-        <v>0.9979656027162328</v>
+        <v>1.0169714912707841</v>
       </c>
       <c r="E24" s="3">
-        <v>0.9958932238193019</v>
+        <v>1.0163098878695209</v>
       </c>
       <c r="F24" s="3">
-        <v>0.99692536811510657</v>
+        <v>1.0146338188897093</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99729979150288817</v>
+        <v>1.0212993214375472</v>
       </c>
       <c r="H24" s="3">
-        <v>0.99583591742712851</v>
+        <v>1.0194943389801652</v>
       </c>
       <c r="I24" s="3">
-        <v>0.99539505574406206</v>
+        <v>1.0193562907945082</v>
       </c>
       <c r="J24" s="3">
-        <v>1.003725006847439</v>
+        <v>1.0183414532475314</v>
       </c>
       <c r="K24" s="3">
-        <v>0.9914217232244229</v>
+        <v>1.0086498015285266</v>
       </c>
       <c r="L24" s="3">
-        <v>0.99794766546947156</v>
+        <v>1.0249529190207156</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D25" s="5">
-        <v>1.0310600945307224</v>
+        <v>1.0150898043666956</v>
       </c>
       <c r="E25" s="5">
-        <v>1.0394736842105263</v>
+        <v>1.006514657980456</v>
       </c>
       <c r="F25" s="5">
-        <v>1.0317253368100825</v>
+        <v>1.0134257254222607</v>
       </c>
       <c r="G25" s="5">
-        <v>1.030643910007758</v>
+        <v>1.0166727075027184</v>
       </c>
       <c r="H25" s="5">
-        <v>1.0325318246110324</v>
+        <v>1.0117647058823529</v>
       </c>
       <c r="I25" s="5">
-        <v>1.0334448160535117</v>
+        <v>1.0160771704180065</v>
       </c>
       <c r="J25" s="5">
-        <v>1.0298695835086242</v>
+        <v>1.0165769644779332</v>
       </c>
       <c r="K25" s="5">
-        <v>1.0306845003933911</v>
+        <v>1.0164794007490636</v>
       </c>
       <c r="L25" s="5">
-        <v>1.0306122448979591</v>
+        <v>1.0186915887850467</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2394,37 +2397,37 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.941069333827252</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.94789081885856075</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.94240519164469683</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.93999698477310423</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.94036259541984735</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.9425493716337523</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.94191919191919193</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.93736067766384312</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.93953488372093019</v>
+      <c r="D26" s="6">
+        <v>0.97612471613576379</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.97039030955585459</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.97497257951939376</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.97726618705035972</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.97577854671280273</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.97627737226277367</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.97486791375124948</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.97952361053071457</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.97619047619047616</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2469,7 +2472,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2502,10 +2505,10 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -2538,10 +2541,10 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2574,10 +2577,10 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>

--- a/data processing/Input Files/RebasingCoefficients.xlsx
+++ b/data processing/Input Files/RebasingCoefficients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Economics\Consulting\AEMO_2022\01 Analysis\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2390689E-6EBF-4E2B-9BEF-F0072457E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B921CA84-04B2-48D3-B759-84349140686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF246CF-8685-4A0D-95E8-73E2FD9F0A06}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF246CF-8685-4A0D-95E8-73E2FD9F0A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Division</t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>POPINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Value Added &gt;&gt; Division R &amp; S &gt;&gt; Other Services &amp; Arts and Recreation Services </t>
+  </si>
+  <si>
+    <t>R &amp; S</t>
+  </si>
+  <si>
+    <t>GVAO_PLCC</t>
   </si>
 </sst>
 </file>
@@ -1424,15 +1433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE94F8-8811-4296-9A56-EC4544471A97}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2431,12 +2440,14 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -2469,46 +2480,46 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -2541,46 +2552,46 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
+        <v>90</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -2613,72 +2624,108 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
+        <v>94</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
     </row>
